--- a/biology/Zoologie/Cuivré_(papillon)/Cuivré_(papillon).xlsx
+++ b/biology/Zoologie/Cuivré_(papillon)/Cuivré_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_(papillon)</t>
+          <t>Cuivré_(papillon)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuivré et Faux-cuivré sont des noms vernaculaires ambigus en français, pouvant désigner plusieurs espèces différentes de petits papillons à nuances cuivrées ou orangées parmi les Lycaenidae, dans la sous-famille des Lycaeninae pour les cuivrés et dans les sous-familles des Theclinae et des Aphnaeinae pour les faux-cuivrés. Ils sont parfois appelés aussi « argus » ou autre.
 Ils sont nommés ainsi à cause de leurs reflets qui rappellent la couleur du cuivre, un brun-rouge métallisé alors que les « azurés » ont des nuances plus bleutées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_(papillon)</t>
+          <t>Cuivré_(papillon)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,37 +524,39 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[1] en français. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
-Cuivré commun — Lycaena phlaeas[2],[3],[4]
-Cuivré d'Anatolie — Lycaena thetis[2]
+Cuivré commun — Lycaena phlaeas
+Cuivré d'Anatolie — Lycaena thetis
 Cuivré de l'Atlas — Lycaena phoebus[réf. souhaitée]
 Cuivré de Bathurst — Paralucia spinifera[réf. souhaitée]
-Cuivré de la bistorte — Lycaena helle[2],[4]
-Cuivré de la potentille — Lycaena dorcas[5]
-Cuivré de la verge-d'or — Lycaena virgaureae[2],[4]
-Cuivré des Balkans — Lycaena ottomanus[2]
-Cuivré des marais — Lycaena dispar[4]
-Cuivré des marais salés — Lycaena dospassosi[6]
-Cuivré des tourbières — Lycaena epixanthe[7]
-Cuivré du genêt — Lycaena thersamon[2]
-Cuivré flambloyant — Lycaena alciphron gordius[4]
-Cuivré fuligineux — Lycaena tityrus[2],[4]
-Cuivré mauvin — l'espèce Lycaena alciphron[2] ou sa sous-espèce Lycaena alciphron alciphron[4]
-Cuivré turc — Lycaena candens[2]
-Cuivré violacé — Lycaena helle[4]
-Cuivré écarlate — Lycaena hippothoe[2],[4]
-Faux-cuivré berbère — Cigaritis zohra[8].
-Faux-cuivré de l'astragale — Tomares nogelii[2]
-Faux-cuivré de Nogel — Tomares nogelii[8]
-Faux-cuivré du caligône — Cigaritis myrmecophila[8]
-Faux-cuivré du sainfoin — Tomares mauretanicus[8]
-Faux-cuivré mauresque — Cigaritis allardi[8]
-Faux-cuivré numide — Cigaritis siphax[8]
-Faux-cuivré smaragdin — Tomares ballus[2],[4]
-Grand cuivré — Lycaena dispar[2],[4]</t>
+Cuivré de la bistorte — Lycaena helle,
+Cuivré de la potentille — Lycaena dorcas
+Cuivré de la verge-d'or — Lycaena virgaureae,
+Cuivré des Balkans — Lycaena ottomanus
+Cuivré des marais — Lycaena dispar
+Cuivré des marais salés — Lycaena dospassosi
+Cuivré des tourbières — Lycaena epixanthe
+Cuivré du genêt — Lycaena thersamon
+Cuivré flambloyant — Lycaena alciphron gordius
+Cuivré fuligineux — Lycaena tityrus,
+Cuivré mauvin — l'espèce Lycaena alciphron ou sa sous-espèce Lycaena alciphron alciphron
+Cuivré turc — Lycaena candens
+Cuivré violacé — Lycaena helle
+Cuivré écarlate — Lycaena hippothoe,
+Faux-cuivré berbère — Cigaritis zohra.
+Faux-cuivré de l'astragale — Tomares nogelii
+Faux-cuivré de Nogel — Tomares nogelii
+Faux-cuivré du caligône — Cigaritis myrmecophila
+Faux-cuivré du sainfoin — Tomares mauretanicus
+Faux-cuivré mauresque — Cigaritis allardi
+Faux-cuivré numide — Cigaritis siphax
+Faux-cuivré smaragdin — Tomares ballus,
+Grand cuivré — Lycaena dispar,</t>
         </is>
       </c>
     </row>
